--- a/Code/Results/Cases/Case_7_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_41/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034024552278052</v>
+        <v>1.016188164376733</v>
       </c>
       <c r="D2">
-        <v>1.051785818199691</v>
+        <v>1.037249285722382</v>
       </c>
       <c r="E2">
-        <v>1.045675533079137</v>
+        <v>1.030812694636071</v>
       </c>
       <c r="F2">
-        <v>1.057523106266278</v>
+        <v>1.042618147261568</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06475401776703</v>
+        <v>1.056970444363383</v>
       </c>
       <c r="J2">
-        <v>1.055233128359389</v>
+        <v>1.037895240523198</v>
       </c>
       <c r="K2">
-        <v>1.062567929444758</v>
+        <v>1.048212969507467</v>
       </c>
       <c r="L2">
-        <v>1.056533200217685</v>
+        <v>1.041858822190478</v>
       </c>
       <c r="M2">
-        <v>1.068235261194375</v>
+        <v>1.053514034548158</v>
       </c>
       <c r="N2">
-        <v>1.05673168043859</v>
+        <v>1.039369170812989</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040980486078329</v>
+        <v>1.020885861401003</v>
       </c>
       <c r="D3">
-        <v>1.057299174138311</v>
+        <v>1.040890165714984</v>
       </c>
       <c r="E3">
-        <v>1.051560291166853</v>
+        <v>1.034673033768241</v>
       </c>
       <c r="F3">
-        <v>1.063522714612068</v>
+        <v>1.046668222046073</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067218720317115</v>
+        <v>1.058422091171911</v>
       </c>
       <c r="J3">
-        <v>1.060413074393383</v>
+        <v>1.040822908924294</v>
       </c>
       <c r="K3">
-        <v>1.067247862463928</v>
+        <v>1.051025274333315</v>
       </c>
       <c r="L3">
-        <v>1.061573362805893</v>
+        <v>1.044880685438858</v>
       </c>
       <c r="M3">
-        <v>1.073402547333878</v>
+        <v>1.056736864428165</v>
       </c>
       <c r="N3">
-        <v>1.061918982590101</v>
+        <v>1.042300996839023</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045359980617308</v>
+        <v>1.023863211545492</v>
       </c>
       <c r="D4">
-        <v>1.060771830305127</v>
+        <v>1.043198250883601</v>
       </c>
       <c r="E4">
-        <v>1.055270238742473</v>
+        <v>1.037124915423455</v>
       </c>
       <c r="F4">
-        <v>1.067304604306314</v>
+        <v>1.049238761883271</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.068756425118675</v>
+        <v>1.059328436914283</v>
       </c>
       <c r="J4">
-        <v>1.063670477274592</v>
+        <v>1.042675583446</v>
       </c>
       <c r="K4">
-        <v>1.070188209868684</v>
+        <v>1.052801834429972</v>
       </c>
       <c r="L4">
-        <v>1.064744404303607</v>
+        <v>1.046795007776847</v>
       </c>
       <c r="M4">
-        <v>1.076653310582019</v>
+        <v>1.058777131964867</v>
       </c>
       <c r="N4">
-        <v>1.065181011357031</v>
+        <v>1.044156302371054</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047173522174022</v>
+        <v>1.025100494393377</v>
       </c>
       <c r="D5">
-        <v>1.062210103709443</v>
+        <v>1.044157482468608</v>
       </c>
       <c r="E5">
-        <v>1.056807613863131</v>
+        <v>1.038145043326486</v>
       </c>
       <c r="F5">
-        <v>1.068871675069802</v>
+        <v>1.050307812741835</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.069389747994309</v>
+        <v>1.059701747423981</v>
       </c>
       <c r="J5">
-        <v>1.065018365532207</v>
+        <v>1.043444770258414</v>
       </c>
       <c r="K5">
-        <v>1.071404254314841</v>
+        <v>1.053538658597526</v>
       </c>
       <c r="L5">
-        <v>1.066056917375272</v>
+        <v>1.047590276737657</v>
       </c>
       <c r="M5">
-        <v>1.077998752412404</v>
+        <v>1.059624389513863</v>
       </c>
       <c r="N5">
-        <v>1.066530813770577</v>
+        <v>1.044926581516969</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047476446408776</v>
+        <v>1.025307410604431</v>
       </c>
       <c r="D6">
-        <v>1.06245035753839</v>
+        <v>1.044317901577856</v>
       </c>
       <c r="E6">
-        <v>1.057064470802036</v>
+        <v>1.038315713683401</v>
       </c>
       <c r="F6">
-        <v>1.069133486394304</v>
+        <v>1.050486641798005</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.069495331005304</v>
+        <v>1.059763980278567</v>
       </c>
       <c r="J6">
-        <v>1.06524344933211</v>
+        <v>1.043573361363016</v>
       </c>
       <c r="K6">
-        <v>1.071607282821306</v>
+        <v>1.053661794149782</v>
       </c>
       <c r="L6">
-        <v>1.066276114818383</v>
+        <v>1.04772325680826</v>
       </c>
       <c r="M6">
-        <v>1.078223444937294</v>
+        <v>1.059766043072365</v>
       </c>
       <c r="N6">
-        <v>1.066756217215293</v>
+        <v>1.045055355235689</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045384319813729</v>
+        <v>1.023879800050723</v>
       </c>
       <c r="D7">
-        <v>1.060791132213837</v>
+        <v>1.043211111287297</v>
       </c>
       <c r="E7">
-        <v>1.055290867340547</v>
+        <v>1.037138587761274</v>
       </c>
       <c r="F7">
-        <v>1.067325631830781</v>
+        <v>1.049253091677144</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.068764938500635</v>
+        <v>1.059333455205253</v>
       </c>
       <c r="J7">
-        <v>1.063688571042669</v>
+        <v>1.042685898983146</v>
       </c>
       <c r="K7">
-        <v>1.070204536385181</v>
+        <v>1.052811718983414</v>
       </c>
       <c r="L7">
-        <v>1.06476202178794</v>
+        <v>1.046805671176882</v>
       </c>
       <c r="M7">
-        <v>1.076671370339202</v>
+        <v>1.058788493778827</v>
       </c>
       <c r="N7">
-        <v>1.065199130820334</v>
+        <v>1.044166632557447</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036401418581216</v>
+        <v>1.017789020365626</v>
       </c>
       <c r="D8">
-        <v>1.053669396675978</v>
+        <v>1.038489858198643</v>
       </c>
       <c r="E8">
-        <v>1.047685299925957</v>
+        <v>1.032127072772593</v>
       </c>
       <c r="F8">
-        <v>1.059572190930523</v>
+        <v>1.043997513916695</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065599145619547</v>
+        <v>1.057467969577085</v>
       </c>
       <c r="J8">
-        <v>1.057003923665529</v>
+        <v>1.038893490999862</v>
       </c>
       <c r="K8">
-        <v>1.064168333207439</v>
+        <v>1.049172527903247</v>
       </c>
       <c r="L8">
-        <v>1.05825587878385</v>
+        <v>1.042888760825012</v>
       </c>
       <c r="M8">
-        <v>1.070001439779392</v>
+        <v>1.054612751557015</v>
       </c>
       <c r="N8">
-        <v>1.058504990477179</v>
+        <v>1.04036883891983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01956931700239</v>
+        <v>1.006552973663773</v>
       </c>
       <c r="D9">
-        <v>1.040340636183077</v>
+        <v>1.029787243010121</v>
       </c>
       <c r="E9">
-        <v>1.033477318825099</v>
+        <v>1.022925983648753</v>
       </c>
       <c r="F9">
-        <v>1.045084507392019</v>
+        <v>1.03433371466152</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059556230953659</v>
+        <v>1.053919902396475</v>
       </c>
       <c r="J9">
-        <v>1.044449466250031</v>
+        <v>1.031876432915317</v>
       </c>
       <c r="K9">
-        <v>1.052811445882011</v>
+        <v>1.042414846463673</v>
       </c>
       <c r="L9">
-        <v>1.046049635071678</v>
+        <v>1.035657739663838</v>
       </c>
       <c r="M9">
-        <v>1.057486144524506</v>
+        <v>1.046893271524949</v>
       </c>
       <c r="N9">
-        <v>1.045932704292134</v>
+        <v>1.033341815807938</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007560360872026</v>
+        <v>0.9986856737812372</v>
       </c>
       <c r="D10">
-        <v>1.030848911491518</v>
+        <v>1.023702566849756</v>
       </c>
       <c r="E10">
-        <v>1.023376200876552</v>
+        <v>1.016516680671775</v>
       </c>
       <c r="F10">
-        <v>1.034782595530489</v>
+        <v>1.027592298901305</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055173715285878</v>
+        <v>1.051366668520002</v>
       </c>
       <c r="J10">
-        <v>1.035477195507094</v>
+        <v>1.026951535509769</v>
       </c>
       <c r="K10">
-        <v>1.044682656293186</v>
+        <v>1.037656657456335</v>
       </c>
       <c r="L10">
-        <v>1.037335839365183</v>
+        <v>1.030593990278676</v>
       </c>
       <c r="M10">
-        <v>1.048551009221127</v>
+        <v>1.041480617968123</v>
       </c>
       <c r="N10">
-        <v>1.036947691895608</v>
+        <v>1.02840992448318</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002144436743529</v>
+        <v>0.995180436217341</v>
       </c>
       <c r="D11">
-        <v>1.026574196612925</v>
+        <v>1.020994599618841</v>
       </c>
       <c r="E11">
-        <v>1.018830727059574</v>
+        <v>1.013669718100603</v>
       </c>
       <c r="F11">
-        <v>1.03014640669561</v>
+        <v>1.024595510174382</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053181405612822</v>
+        <v>1.05021350012937</v>
       </c>
       <c r="J11">
-        <v>1.031428275955444</v>
+        <v>1.024755098318086</v>
       </c>
       <c r="K11">
-        <v>1.041011779898237</v>
+        <v>1.035531159676205</v>
       </c>
       <c r="L11">
-        <v>1.033406051232175</v>
+        <v>1.028338367173392</v>
       </c>
       <c r="M11">
-        <v>1.044521351416475</v>
+        <v>1.0390680334732</v>
       </c>
       <c r="N11">
-        <v>1.032893022413777</v>
+        <v>1.026210368098751</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000097447880836</v>
+        <v>0.9938627572645876</v>
       </c>
       <c r="D12">
-        <v>1.024959597330091</v>
+        <v>1.019977169346995</v>
       </c>
       <c r="E12">
-        <v>1.017114387866044</v>
+        <v>1.012600871661426</v>
       </c>
       <c r="F12">
-        <v>1.028395769958175</v>
+        <v>1.023470069499296</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052426118051168</v>
+        <v>1.049777730524302</v>
       </c>
       <c r="J12">
-        <v>1.029897684110076</v>
+        <v>1.023929146670486</v>
       </c>
       <c r="K12">
-        <v>1.039623740081929</v>
+        <v>1.034731391750371</v>
       </c>
       <c r="L12">
-        <v>1.031920887748116</v>
+        <v>1.02749057618185</v>
       </c>
       <c r="M12">
-        <v>1.042998448657448</v>
+        <v>1.038161022654901</v>
       </c>
       <c r="N12">
-        <v>1.031360256952428</v>
+        <v>1.025383243505073</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000538179181139</v>
+        <v>0.9941461277776098</v>
       </c>
       <c r="D13">
-        <v>1.025307181349801</v>
+        <v>1.020195944678517</v>
       </c>
       <c r="E13">
-        <v>1.017483850608369</v>
+        <v>1.012830666688792</v>
       </c>
       <c r="F13">
-        <v>1.028772617491313</v>
+        <v>1.023712047452111</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05258883803466</v>
+        <v>1.049871545591048</v>
       </c>
       <c r="J13">
-        <v>1.030227241960992</v>
+        <v>1.024106781323195</v>
       </c>
       <c r="K13">
-        <v>1.039922620083766</v>
+        <v>1.03490341707795</v>
       </c>
       <c r="L13">
-        <v>1.032240646123942</v>
+        <v>1.027672888817975</v>
       </c>
       <c r="M13">
-        <v>1.043326331998325</v>
+        <v>1.038356080219843</v>
       </c>
       <c r="N13">
-        <v>1.031690282813293</v>
+        <v>1.025561130419364</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001975969105813</v>
+        <v>0.995071841463126</v>
       </c>
       <c r="D14">
-        <v>1.026441292200357</v>
+        <v>1.020910737952764</v>
       </c>
       <c r="E14">
-        <v>1.018689437447491</v>
+        <v>1.013581602153934</v>
       </c>
       <c r="F14">
-        <v>1.030002294536251</v>
+        <v>1.024502735577709</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053119290910921</v>
+        <v>1.050177632568027</v>
       </c>
       <c r="J14">
-        <v>1.031302312796718</v>
+        <v>1.024687033850709</v>
       </c>
       <c r="K14">
-        <v>1.040897555408141</v>
+        <v>1.035465262829495</v>
       </c>
       <c r="L14">
-        <v>1.033283818583978</v>
+        <v>1.028268494476891</v>
       </c>
       <c r="M14">
-        <v>1.044396012584019</v>
+        <v>1.03899328456285</v>
       </c>
       <c r="N14">
-        <v>1.032766880372918</v>
+        <v>1.026142206972022</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00285707465033</v>
+        <v>0.9956401000713637</v>
       </c>
       <c r="D15">
-        <v>1.027136442068444</v>
+        <v>1.021349594924931</v>
       </c>
       <c r="E15">
-        <v>1.019428467008706</v>
+        <v>1.014042755017448</v>
       </c>
       <c r="F15">
-        <v>1.03075608597774</v>
+        <v>1.024988255350112</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053444066033444</v>
+        <v>1.050365229397277</v>
       </c>
       <c r="J15">
-        <v>1.031961104486942</v>
+        <v>1.025043193277404</v>
       </c>
       <c r="K15">
-        <v>1.041494939109751</v>
+        <v>1.035810059848124</v>
       </c>
       <c r="L15">
-        <v>1.033923115707776</v>
+        <v>1.028634132811058</v>
       </c>
       <c r="M15">
-        <v>1.045051555798497</v>
+        <v>1.03938443061972</v>
       </c>
       <c r="N15">
-        <v>1.033426607622906</v>
+        <v>1.026498872185956</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007915013857554</v>
+        <v>0.9989161547483415</v>
       </c>
       <c r="D16">
-        <v>1.031128971338652</v>
+        <v>1.023880694921778</v>
       </c>
       <c r="E16">
-        <v>1.023674073971749</v>
+        <v>1.016704064560546</v>
       </c>
       <c r="F16">
-        <v>1.035086406702694</v>
+        <v>1.027789496273108</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055303858439915</v>
+        <v>1.051442174156074</v>
       </c>
       <c r="J16">
-        <v>1.035742288947881</v>
+        <v>1.02709591769679</v>
       </c>
       <c r="K16">
-        <v>1.044922947130532</v>
+        <v>1.037796307115296</v>
       </c>
       <c r="L16">
-        <v>1.037593186148476</v>
+        <v>1.030742320531174</v>
       </c>
       <c r="M16">
-        <v>1.048814895998736</v>
+        <v>1.041639238467408</v>
       </c>
       <c r="N16">
-        <v>1.037213161799488</v>
+        <v>1.028554511709467</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011028009904883</v>
+        <v>1.000944141275877</v>
       </c>
       <c r="D17">
-        <v>1.033587912174801</v>
+        <v>1.025448386737555</v>
       </c>
       <c r="E17">
-        <v>1.026289830498549</v>
+        <v>1.018353838014545</v>
       </c>
       <c r="F17">
-        <v>1.037754268646665</v>
+        <v>1.029525407600812</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056444421589979</v>
+        <v>1.052104777434326</v>
       </c>
       <c r="J17">
-        <v>1.038068896301316</v>
+        <v>1.028366085813716</v>
       </c>
       <c r="K17">
-        <v>1.04703158340461</v>
+        <v>1.039024456416913</v>
       </c>
       <c r="L17">
-        <v>1.039852088015557</v>
+        <v>1.032047533079691</v>
       </c>
       <c r="M17">
-        <v>1.051131199424709</v>
+        <v>1.043034823834522</v>
       </c>
       <c r="N17">
-        <v>1.039543073202231</v>
+        <v>1.02982648361081</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012823137657219</v>
+        <v>1.002117574828322</v>
       </c>
       <c r="D18">
-        <v>1.035006424891947</v>
+        <v>1.026355766197137</v>
       </c>
       <c r="E18">
-        <v>1.027799156380522</v>
+        <v>1.019309247441511</v>
       </c>
       <c r="F18">
-        <v>1.039293625582724</v>
+        <v>1.03053048172364</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057100636088736</v>
+        <v>1.05248668981919</v>
       </c>
       <c r="J18">
-        <v>1.039410304547389</v>
+        <v>1.029100820746385</v>
       </c>
       <c r="K18">
-        <v>1.048247073709675</v>
+        <v>1.039734560724148</v>
       </c>
       <c r="L18">
-        <v>1.041154693491846</v>
+        <v>1.03280279902825</v>
       </c>
       <c r="M18">
-        <v>1.052466900370681</v>
+        <v>1.043842237413065</v>
       </c>
       <c r="N18">
-        <v>1.040886386401876</v>
+        <v>1.030562261951359</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01343181118364</v>
+        <v>1.002516106355461</v>
       </c>
       <c r="D19">
-        <v>1.035487488273919</v>
+        <v>1.02666398344999</v>
       </c>
       <c r="E19">
-        <v>1.028311077438399</v>
+        <v>1.019633868320117</v>
       </c>
       <c r="F19">
-        <v>1.039815726216548</v>
+        <v>1.030871940035754</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057322881649256</v>
+        <v>1.052616144609854</v>
       </c>
       <c r="J19">
-        <v>1.039865091223914</v>
+        <v>1.029350320579823</v>
       </c>
       <c r="K19">
-        <v>1.048659126862881</v>
+        <v>1.039975640889827</v>
       </c>
       <c r="L19">
-        <v>1.041596363561148</v>
+        <v>1.033059314592715</v>
       </c>
       <c r="M19">
-        <v>1.052919790778239</v>
+        <v>1.044116439065014</v>
       </c>
       <c r="N19">
-        <v>1.041341818927645</v>
+        <v>1.030812116103178</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010696168150934</v>
+        <v>1.000727541660799</v>
       </c>
       <c r="D20">
-        <v>1.033325733705714</v>
+        <v>1.025280919199501</v>
       </c>
       <c r="E20">
-        <v>1.026010895829118</v>
+        <v>1.018177548215138</v>
       </c>
       <c r="F20">
-        <v>1.037469781160227</v>
+        <v>1.029339936080159</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056322993839735</v>
+        <v>1.052034161330056</v>
       </c>
       <c r="J20">
-        <v>1.037820907283071</v>
+        <v>1.028230446576767</v>
       </c>
       <c r="K20">
-        <v>1.046806852930326</v>
+        <v>1.038893337849776</v>
       </c>
       <c r="L20">
-        <v>1.039611291275167</v>
+        <v>1.03190812455069</v>
       </c>
       <c r="M20">
-        <v>1.050884284216916</v>
+        <v>1.042885777864205</v>
       </c>
       <c r="N20">
-        <v>1.039294732011135</v>
+        <v>1.029690651750587</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00155357390471</v>
+        <v>0.9947996818369388</v>
       </c>
       <c r="D21">
-        <v>1.026108081549</v>
+        <v>1.020700573282712</v>
       </c>
       <c r="E21">
-        <v>1.018335212290464</v>
+        <v>1.013360788825539</v>
       </c>
       <c r="F21">
-        <v>1.029640992335025</v>
+        <v>1.024270242406049</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052963515779401</v>
+        <v>1.05008770507752</v>
       </c>
       <c r="J21">
-        <v>1.030986484131296</v>
+        <v>1.024516446810363</v>
       </c>
       <c r="K21">
-        <v>1.04061115358361</v>
+        <v>1.035300100540829</v>
       </c>
       <c r="L21">
-        <v>1.032977349868337</v>
+        <v>1.028093382285636</v>
       </c>
       <c r="M21">
-        <v>1.0440817559681</v>
+        <v>1.038805948199915</v>
       </c>
       <c r="N21">
-        <v>1.032450603194565</v>
+        <v>1.025971377678512</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.995599526515987</v>
+        <v>0.9909814235738162</v>
       </c>
       <c r="D22">
-        <v>1.02141393462104</v>
+        <v>1.017753475121358</v>
       </c>
       <c r="E22">
-        <v>1.013346247167384</v>
+        <v>1.010266267251162</v>
       </c>
       <c r="F22">
-        <v>1.024552260725563</v>
+        <v>1.021011219442328</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050762414835268</v>
+        <v>1.048820740787078</v>
       </c>
       <c r="J22">
-        <v>1.02653408316198</v>
+        <v>1.022122618712418</v>
       </c>
       <c r="K22">
-        <v>1.036572787608582</v>
+        <v>1.032981249893012</v>
       </c>
       <c r="L22">
-        <v>1.028657869080666</v>
+        <v>1.025637054399495</v>
       </c>
       <c r="M22">
-        <v>1.039652534518207</v>
+        <v>1.036177623451178</v>
       </c>
       <c r="N22">
-        <v>1.027991879305175</v>
+        <v>1.023574150070093</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9987764150945514</v>
+        <v>0.9930145001236768</v>
       </c>
       <c r="D23">
-        <v>1.023917930144105</v>
+        <v>1.019322361167035</v>
       </c>
       <c r="E23">
-        <v>1.016007228112191</v>
+        <v>1.011913197792448</v>
       </c>
       <c r="F23">
-        <v>1.02726647470524</v>
+        <v>1.022745887253372</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051938060930757</v>
+        <v>1.049496571444435</v>
       </c>
       <c r="J23">
-        <v>1.028909847489203</v>
+        <v>1.023397369370898</v>
       </c>
       <c r="K23">
-        <v>1.038727809310967</v>
+        <v>1.034216336252785</v>
       </c>
       <c r="L23">
-        <v>1.03096248401983</v>
+        <v>1.026944856154392</v>
       </c>
       <c r="M23">
-        <v>1.042015693676167</v>
+        <v>1.037577120592052</v>
       </c>
       <c r="N23">
-        <v>1.030371017490247</v>
+        <v>1.024850711020723</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.01084617669954</v>
+        <v>1.000825442864724</v>
       </c>
       <c r="D24">
-        <v>1.033444249379764</v>
+        <v>1.025356612251113</v>
       </c>
       <c r="E24">
-        <v>1.026136984922447</v>
+        <v>1.018257227192033</v>
       </c>
       <c r="F24">
-        <v>1.037598380445991</v>
+        <v>1.029423765665293</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056377889724396</v>
+        <v>1.052066083819055</v>
       </c>
       <c r="J24">
-        <v>1.037933011097647</v>
+        <v>1.028291755025184</v>
       </c>
       <c r="K24">
-        <v>1.046908443452296</v>
+        <v>1.038952603979905</v>
       </c>
       <c r="L24">
-        <v>1.039720143087728</v>
+        <v>1.031971135901576</v>
       </c>
       <c r="M24">
-        <v>1.050995901891234</v>
+        <v>1.042953145704512</v>
       </c>
       <c r="N24">
-        <v>1.039406995025985</v>
+        <v>1.029752047264033</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024050630478027</v>
+        <v>1.00952118248425</v>
       </c>
       <c r="D25">
-        <v>1.04388673024241</v>
+        <v>1.032084990815376</v>
       </c>
       <c r="E25">
-        <v>1.03725438592699</v>
+        <v>1.025351162731796</v>
       </c>
       <c r="F25">
-        <v>1.04893629362235</v>
+        <v>1.036882551009408</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061177537027173</v>
+        <v>1.054869307563471</v>
       </c>
       <c r="J25">
-        <v>1.047794845769062</v>
+        <v>1.033732315179491</v>
       </c>
       <c r="K25">
-        <v>1.055839926312171</v>
+        <v>1.044204839801676</v>
       </c>
       <c r="L25">
-        <v>1.049300647601534</v>
+        <v>1.037568280295486</v>
       </c>
       <c r="M25">
-        <v>1.060819628284309</v>
+        <v>1.048934074859497</v>
       </c>
       <c r="N25">
-        <v>1.049282834633803</v>
+        <v>1.0352003336378</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_41/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016188164376733</v>
+        <v>1.007935638619175</v>
       </c>
       <c r="D2">
-        <v>1.037249285722382</v>
+        <v>1.029492217965691</v>
       </c>
       <c r="E2">
-        <v>1.030812694636071</v>
+        <v>1.02407003401196</v>
       </c>
       <c r="F2">
-        <v>1.042618147261568</v>
+        <v>1.036684963911169</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056970444363383</v>
+        <v>1.052922827964174</v>
       </c>
       <c r="J2">
-        <v>1.037895240523198</v>
+        <v>1.02988155935986</v>
       </c>
       <c r="K2">
-        <v>1.048212969507467</v>
+        <v>1.040555418459122</v>
       </c>
       <c r="L2">
-        <v>1.041858822190478</v>
+        <v>1.035203918415678</v>
       </c>
       <c r="M2">
-        <v>1.053514034548158</v>
+        <v>1.047655824731401</v>
       </c>
       <c r="N2">
-        <v>1.039369170812989</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013865638729185</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04628875628423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020885861401003</v>
+        <v>1.011548866417476</v>
       </c>
       <c r="D3">
-        <v>1.040890165714984</v>
+        <v>1.03204722030213</v>
       </c>
       <c r="E3">
-        <v>1.034673033768241</v>
+        <v>1.026844640385337</v>
       </c>
       <c r="F3">
-        <v>1.046668222046073</v>
+        <v>1.039340956693348</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058422091171911</v>
+        <v>1.053774096022963</v>
       </c>
       <c r="J3">
-        <v>1.040822908924294</v>
+        <v>1.031729573411455</v>
       </c>
       <c r="K3">
-        <v>1.051025274333315</v>
+        <v>1.042285835756779</v>
       </c>
       <c r="L3">
-        <v>1.044880685438858</v>
+        <v>1.037145185111504</v>
       </c>
       <c r="M3">
-        <v>1.056736864428165</v>
+        <v>1.049494041499151</v>
       </c>
       <c r="N3">
-        <v>1.042300996839023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014484090617973</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.047743568610348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023863211545492</v>
+        <v>1.013846308248042</v>
       </c>
       <c r="D4">
-        <v>1.043198250883601</v>
+        <v>1.033672533011312</v>
       </c>
       <c r="E4">
-        <v>1.037124915423455</v>
+        <v>1.028614228535402</v>
       </c>
       <c r="F4">
-        <v>1.049238761883271</v>
+        <v>1.041034102238614</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059328436914283</v>
+        <v>1.054302115408439</v>
       </c>
       <c r="J4">
-        <v>1.042675583446</v>
+        <v>1.032902335453914</v>
       </c>
       <c r="K4">
-        <v>1.052801834429972</v>
+        <v>1.043380860740543</v>
       </c>
       <c r="L4">
-        <v>1.046795007776847</v>
+        <v>1.038379148178872</v>
       </c>
       <c r="M4">
-        <v>1.058777131964867</v>
+        <v>1.050661276010419</v>
       </c>
       <c r="N4">
-        <v>1.044156302371054</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014876486452434</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.048667346726968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025100494393377</v>
+        <v>1.014802711880451</v>
       </c>
       <c r="D5">
-        <v>1.044157482468608</v>
+        <v>1.034349266698793</v>
       </c>
       <c r="E5">
-        <v>1.038145043326486</v>
+        <v>1.029352147386438</v>
       </c>
       <c r="F5">
-        <v>1.050307812741835</v>
+        <v>1.041739947003806</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059701747423981</v>
+        <v>1.054518698527606</v>
       </c>
       <c r="J5">
-        <v>1.043444770258414</v>
+        <v>1.033389970414276</v>
       </c>
       <c r="K5">
-        <v>1.053538658597526</v>
+        <v>1.043835411010478</v>
       </c>
       <c r="L5">
-        <v>1.047590276737657</v>
+        <v>1.038892715562402</v>
       </c>
       <c r="M5">
-        <v>1.059624389513863</v>
+        <v>1.051146771058551</v>
       </c>
       <c r="N5">
-        <v>1.044926581516969</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015039624658706</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.049051579116908</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025307410604431</v>
+        <v>1.014962750257937</v>
       </c>
       <c r="D6">
-        <v>1.044317901577856</v>
+        <v>1.034462513332947</v>
       </c>
       <c r="E6">
-        <v>1.038315713683401</v>
+        <v>1.029475698767172</v>
       </c>
       <c r="F6">
-        <v>1.050486641798005</v>
+        <v>1.041858116338002</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059763980278567</v>
+        <v>1.054554749155553</v>
       </c>
       <c r="J6">
-        <v>1.043573361363016</v>
+        <v>1.033471533507299</v>
       </c>
       <c r="K6">
-        <v>1.053661794149782</v>
+        <v>1.043911395048215</v>
       </c>
       <c r="L6">
-        <v>1.04772325680826</v>
+        <v>1.038978644690098</v>
       </c>
       <c r="M6">
-        <v>1.059766043072365</v>
+        <v>1.051227985335799</v>
       </c>
       <c r="N6">
-        <v>1.045055355235689</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015066910352568</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.049115854018472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023879800050723</v>
+        <v>1.013859124507248</v>
       </c>
       <c r="D7">
-        <v>1.043211111287297</v>
+        <v>1.033681601102723</v>
       </c>
       <c r="E7">
-        <v>1.037138587761274</v>
+        <v>1.02862411208267</v>
       </c>
       <c r="F7">
-        <v>1.049253091677144</v>
+        <v>1.041043556980043</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059333455205253</v>
+        <v>1.054305030522658</v>
       </c>
       <c r="J7">
-        <v>1.042685898983146</v>
+        <v>1.03290887229744</v>
       </c>
       <c r="K7">
-        <v>1.052811718983414</v>
+        <v>1.043386957105846</v>
       </c>
       <c r="L7">
-        <v>1.046805671176882</v>
+        <v>1.038386030736116</v>
       </c>
       <c r="M7">
-        <v>1.058788493778827</v>
+        <v>1.050667783551409</v>
       </c>
       <c r="N7">
-        <v>1.044166632557447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014878673434025</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.048672496951826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017789020365626</v>
+        <v>1.009165308970866</v>
       </c>
       <c r="D8">
-        <v>1.038489858198643</v>
+        <v>1.030361566482787</v>
       </c>
       <c r="E8">
-        <v>1.032127072772593</v>
+        <v>1.025013154431142</v>
       </c>
       <c r="F8">
-        <v>1.043997513916695</v>
+        <v>1.037587927459374</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057467969577085</v>
+        <v>1.053215280052593</v>
       </c>
       <c r="J8">
-        <v>1.038893490999862</v>
+        <v>1.030510944990452</v>
       </c>
       <c r="K8">
-        <v>1.049172527903247</v>
+        <v>1.041145395756216</v>
       </c>
       <c r="L8">
-        <v>1.042888760825012</v>
+        <v>1.035864639533328</v>
       </c>
       <c r="M8">
-        <v>1.054612751557015</v>
+        <v>1.048281724705212</v>
       </c>
       <c r="N8">
-        <v>1.04036883891983</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014076282811304</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.046784110044869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006552973663773</v>
+        <v>1.000570963473967</v>
       </c>
       <c r="D9">
-        <v>1.029787243010121</v>
+        <v>1.024290554960805</v>
       </c>
       <c r="E9">
-        <v>1.022925983648753</v>
+        <v>1.018445688579481</v>
       </c>
       <c r="F9">
-        <v>1.03433371466152</v>
+        <v>1.031297065061521</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053919902396475</v>
+        <v>1.051117287386554</v>
       </c>
       <c r="J9">
-        <v>1.031876432915317</v>
+        <v>1.026103575647394</v>
       </c>
       <c r="K9">
-        <v>1.042414846463673</v>
+        <v>1.037001455310703</v>
       </c>
       <c r="L9">
-        <v>1.035657739663838</v>
+        <v>1.031246421902975</v>
       </c>
       <c r="M9">
-        <v>1.046893271524949</v>
+        <v>1.043901986480787</v>
       </c>
       <c r="N9">
-        <v>1.033341815807938</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012600945667252</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.043317862589653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9986856737812372</v>
+        <v>0.9946508340933941</v>
       </c>
       <c r="D10">
-        <v>1.023702566849756</v>
+        <v>1.020130939668752</v>
       </c>
       <c r="E10">
-        <v>1.016516680671775</v>
+        <v>1.013973569035546</v>
       </c>
       <c r="F10">
-        <v>1.027592298901305</v>
+        <v>1.027040713283225</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051366668520002</v>
+        <v>1.049621382818427</v>
       </c>
       <c r="J10">
-        <v>1.026951535509769</v>
+        <v>1.023078302241396</v>
       </c>
       <c r="K10">
-        <v>1.037656657456335</v>
+        <v>1.034145993837041</v>
       </c>
       <c r="L10">
-        <v>1.030593990278676</v>
+        <v>1.028095028018228</v>
       </c>
       <c r="M10">
-        <v>1.041480617968123</v>
+        <v>1.040938320020032</v>
       </c>
       <c r="N10">
-        <v>1.02840992448318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011591955090378</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.041023604634802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.995180436217341</v>
+        <v>0.9923859515018603</v>
       </c>
       <c r="D11">
-        <v>1.020994599618841</v>
+        <v>1.018651382513104</v>
       </c>
       <c r="E11">
-        <v>1.013669718100603</v>
+        <v>1.012427183379319</v>
       </c>
       <c r="F11">
-        <v>1.024595510174382</v>
+        <v>1.025814839512773</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05021350012937</v>
+        <v>1.049153908060018</v>
       </c>
       <c r="J11">
-        <v>1.024755098318086</v>
+        <v>1.022078950506485</v>
       </c>
       <c r="K11">
-        <v>1.035531159676205</v>
+        <v>1.033229929108637</v>
       </c>
       <c r="L11">
-        <v>1.028338367173392</v>
+        <v>1.027118485812498</v>
       </c>
       <c r="M11">
-        <v>1.0390680334732</v>
+        <v>1.040265811000218</v>
       </c>
       <c r="N11">
-        <v>1.026210368098751</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011292664618903</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.040926370582408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9938627572645876</v>
+        <v>0.991664376152536</v>
       </c>
       <c r="D12">
-        <v>1.019977169346995</v>
+        <v>1.01822362096119</v>
       </c>
       <c r="E12">
-        <v>1.012600871661426</v>
+        <v>1.011999721207128</v>
       </c>
       <c r="F12">
-        <v>1.023470069499296</v>
+        <v>1.025589877529897</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049777730524302</v>
+        <v>1.049050614950391</v>
       </c>
       <c r="J12">
-        <v>1.023929146670486</v>
+        <v>1.021825752669569</v>
       </c>
       <c r="K12">
-        <v>1.034731391750371</v>
+        <v>1.033009819635283</v>
       </c>
       <c r="L12">
-        <v>1.02749057618185</v>
+        <v>1.026900580716305</v>
       </c>
       <c r="M12">
-        <v>1.038161022654901</v>
+        <v>1.040242706163861</v>
       </c>
       <c r="N12">
-        <v>1.025383243505073</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011235977179068</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.041233655069952</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9941461277776098</v>
+        <v>0.9920866577616123</v>
       </c>
       <c r="D13">
-        <v>1.020195944678517</v>
+        <v>1.01858187379546</v>
       </c>
       <c r="E13">
-        <v>1.012830666688792</v>
+        <v>1.012409083561594</v>
       </c>
       <c r="F13">
-        <v>1.023712047452111</v>
+        <v>1.026131685391755</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049871545591048</v>
+        <v>1.049229215277286</v>
       </c>
       <c r="J13">
-        <v>1.024106781323195</v>
+        <v>1.022135880334911</v>
       </c>
       <c r="K13">
-        <v>1.03490341707795</v>
+        <v>1.033318659091174</v>
       </c>
       <c r="L13">
-        <v>1.027672888817975</v>
+        <v>1.027259096002987</v>
       </c>
       <c r="M13">
-        <v>1.038356080219843</v>
+        <v>1.040732389490711</v>
       </c>
       <c r="N13">
-        <v>1.025561130419364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011364153961744</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.041896870786917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.995071841463126</v>
+        <v>0.9928998789307669</v>
       </c>
       <c r="D14">
-        <v>1.020910737952764</v>
+        <v>1.019188013054595</v>
       </c>
       <c r="E14">
-        <v>1.013581602153934</v>
+        <v>1.01307381186881</v>
       </c>
       <c r="F14">
-        <v>1.024502735577709</v>
+        <v>1.026857636989285</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050177632568027</v>
+        <v>1.049481194476208</v>
       </c>
       <c r="J14">
-        <v>1.024687033850709</v>
+        <v>1.022607124556369</v>
       </c>
       <c r="K14">
-        <v>1.035465262829495</v>
+        <v>1.033773428721166</v>
       </c>
       <c r="L14">
-        <v>1.028268494476891</v>
+        <v>1.027769967459271</v>
       </c>
       <c r="M14">
-        <v>1.03899328456285</v>
+        <v>1.04130655851684</v>
       </c>
       <c r="N14">
-        <v>1.026142206972022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011537147153246</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042523698494016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9956401000713637</v>
+        <v>0.993349530551622</v>
       </c>
       <c r="D15">
-        <v>1.021349594924931</v>
+        <v>1.019511041847909</v>
       </c>
       <c r="E15">
-        <v>1.014042755017448</v>
+        <v>1.013423142742431</v>
       </c>
       <c r="F15">
-        <v>1.024988255350112</v>
+        <v>1.027210963203223</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050365229397277</v>
+        <v>1.049606600237418</v>
       </c>
       <c r="J15">
-        <v>1.025043193277404</v>
+        <v>1.022848836993746</v>
       </c>
       <c r="K15">
-        <v>1.035810059848124</v>
+        <v>1.034004217803492</v>
       </c>
       <c r="L15">
-        <v>1.028634132811058</v>
+        <v>1.028025734733722</v>
       </c>
       <c r="M15">
-        <v>1.03938443061972</v>
+        <v>1.041568156840662</v>
       </c>
       <c r="N15">
-        <v>1.026498872185956</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01162110055334</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.042767928385585</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9989161547483415</v>
+        <v>0.9957774743632772</v>
       </c>
       <c r="D16">
-        <v>1.023880694921778</v>
+        <v>1.021211103446509</v>
       </c>
       <c r="E16">
-        <v>1.016704064560546</v>
+        <v>1.01524265816352</v>
       </c>
       <c r="F16">
-        <v>1.027789496273108</v>
+        <v>1.028934142235263</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051442174156074</v>
+        <v>1.050227759178734</v>
       </c>
       <c r="J16">
-        <v>1.02709591769679</v>
+        <v>1.02408230539222</v>
       </c>
       <c r="K16">
-        <v>1.037796307115296</v>
+        <v>1.035172077109346</v>
       </c>
       <c r="L16">
-        <v>1.030742320531174</v>
+        <v>1.029306163501803</v>
       </c>
       <c r="M16">
-        <v>1.041639238467408</v>
+        <v>1.042764717269038</v>
       </c>
       <c r="N16">
-        <v>1.028554511709467</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012027745394392</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.043675053440291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000944141275877</v>
+        <v>0.997214315321665</v>
       </c>
       <c r="D17">
-        <v>1.025448386737555</v>
+        <v>1.022197146235617</v>
       </c>
       <c r="E17">
-        <v>1.018353838014545</v>
+        <v>1.016290432861929</v>
       </c>
       <c r="F17">
-        <v>1.029525407600812</v>
+        <v>1.029871689490885</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052104777434326</v>
+        <v>1.050567997014064</v>
       </c>
       <c r="J17">
-        <v>1.028366085813716</v>
+        <v>1.024779965790006</v>
       </c>
       <c r="K17">
-        <v>1.039024456416913</v>
+        <v>1.03582685955908</v>
       </c>
       <c r="L17">
-        <v>1.032047533079691</v>
+        <v>1.030018736049932</v>
       </c>
       <c r="M17">
-        <v>1.043034823834522</v>
+        <v>1.04337547574407</v>
       </c>
       <c r="N17">
-        <v>1.02982648361081</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012248366510969</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.044029078374775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,81 +1185,93 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002117574828322</v>
+        <v>0.9979284659488601</v>
       </c>
       <c r="D18">
-        <v>1.026355766197137</v>
+        <v>1.022649558878653</v>
       </c>
       <c r="E18">
-        <v>1.019309247441511</v>
+        <v>1.016756438061339</v>
       </c>
       <c r="F18">
-        <v>1.03053048172364</v>
+        <v>1.030191709775145</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05248668981919</v>
+        <v>1.050693524013012</v>
       </c>
       <c r="J18">
-        <v>1.029100820746385</v>
+        <v>1.025069962424882</v>
       </c>
       <c r="K18">
-        <v>1.039734560724148</v>
+        <v>1.036088458057155</v>
       </c>
       <c r="L18">
-        <v>1.03280279902825</v>
+        <v>1.030292068926951</v>
       </c>
       <c r="M18">
-        <v>1.043842237413065</v>
+        <v>1.043508879596457</v>
       </c>
       <c r="N18">
-        <v>1.030562261951359</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012324741594187</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.043897493251548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C19">
-        <v>1.002516106355461</v>
+        <v>0.9979789696202556</v>
       </c>
       <c r="D19">
-        <v>1.02666398344999</v>
+        <v>1.022609038133285</v>
       </c>
       <c r="E19">
-        <v>1.019633868320117</v>
+        <v>1.016684586712664</v>
       </c>
       <c r="F19">
-        <v>1.030871940035754</v>
+        <v>1.029941717891415</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052616144609854</v>
+        <v>1.050622023759887</v>
       </c>
       <c r="J19">
-        <v>1.029350320579823</v>
+        <v>1.024983471916612</v>
       </c>
       <c r="K19">
-        <v>1.039975640889827</v>
+        <v>1.035986083373919</v>
       </c>
       <c r="L19">
-        <v>1.033059314592715</v>
+        <v>1.030158372474307</v>
       </c>
       <c r="M19">
-        <v>1.044116439065014</v>
+        <v>1.043201002597664</v>
       </c>
       <c r="N19">
-        <v>1.030812116103178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01226949686072</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.043329569945375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000727541660799</v>
+        <v>0.9961852093693583</v>
       </c>
       <c r="D20">
-        <v>1.025280919199501</v>
+        <v>1.021208968293728</v>
       </c>
       <c r="E20">
-        <v>1.018177548215138</v>
+        <v>1.015131164983669</v>
       </c>
       <c r="F20">
-        <v>1.029339936080159</v>
+        <v>1.028144304839642</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052034161330056</v>
+        <v>1.050014530392842</v>
       </c>
       <c r="J20">
-        <v>1.028230446576767</v>
+        <v>1.023863980975856</v>
       </c>
       <c r="K20">
-        <v>1.038893337849776</v>
+        <v>1.034888860912045</v>
       </c>
       <c r="L20">
-        <v>1.03190812455069</v>
+        <v>1.028913068703725</v>
       </c>
       <c r="M20">
-        <v>1.042885777864205</v>
+        <v>1.041709687413337</v>
       </c>
       <c r="N20">
-        <v>1.029690651750587</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011854177792599</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.041623541942383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9947996818369388</v>
+        <v>0.9916756147131107</v>
       </c>
       <c r="D21">
-        <v>1.020700573282712</v>
+        <v>1.018022650900763</v>
       </c>
       <c r="E21">
-        <v>1.013360788825539</v>
+        <v>1.011705751621828</v>
       </c>
       <c r="F21">
-        <v>1.024270242406049</v>
+        <v>1.024834955725205</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05008770507752</v>
+        <v>1.048829580398521</v>
       </c>
       <c r="J21">
-        <v>1.024516446810363</v>
+        <v>1.021525545647827</v>
       </c>
       <c r="K21">
-        <v>1.035300100540829</v>
+        <v>1.032670438312159</v>
       </c>
       <c r="L21">
-        <v>1.028093382285636</v>
+        <v>1.026468697510315</v>
       </c>
       <c r="M21">
-        <v>1.038805948199915</v>
+        <v>1.039360617969819</v>
       </c>
       <c r="N21">
-        <v>1.025971377678512</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011068016133319</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.039723678973923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9909814235738162</v>
+        <v>0.9888077181245076</v>
       </c>
       <c r="D22">
-        <v>1.017753475121358</v>
+        <v>1.016006114840097</v>
       </c>
       <c r="E22">
-        <v>1.010266267251162</v>
+        <v>1.00954485785547</v>
       </c>
       <c r="F22">
-        <v>1.021011219442328</v>
+        <v>1.022762158634463</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048820740787078</v>
+        <v>1.048070714371893</v>
       </c>
       <c r="J22">
-        <v>1.022122618712418</v>
+        <v>1.020047134875899</v>
       </c>
       <c r="K22">
-        <v>1.032981249893012</v>
+        <v>1.031267019184599</v>
       </c>
       <c r="L22">
-        <v>1.025637054399495</v>
+        <v>1.024929571371996</v>
       </c>
       <c r="M22">
-        <v>1.036177623451178</v>
+        <v>1.03789578853034</v>
       </c>
       <c r="N22">
-        <v>1.023574150070093</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010572923801425</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.03856436249989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9930145001236768</v>
+        <v>0.990333390545262</v>
       </c>
       <c r="D23">
-        <v>1.019322361167035</v>
+        <v>1.017078595584782</v>
       </c>
       <c r="E23">
-        <v>1.011913197792448</v>
+        <v>1.010693692219478</v>
       </c>
       <c r="F23">
-        <v>1.022745887253372</v>
+        <v>1.023864207030141</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049496571444435</v>
+        <v>1.048475606886714</v>
       </c>
       <c r="J23">
-        <v>1.023397369370898</v>
+        <v>1.020833742492166</v>
       </c>
       <c r="K23">
-        <v>1.034216336252785</v>
+        <v>1.032013990110915</v>
       </c>
       <c r="L23">
-        <v>1.026944856154392</v>
+        <v>1.025748265187193</v>
       </c>
       <c r="M23">
-        <v>1.037577120592052</v>
+        <v>1.038675063620373</v>
       </c>
       <c r="N23">
-        <v>1.024850711020723</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.01083634614855</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.039181107881312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000825442864724</v>
+        <v>0.9962236678654929</v>
       </c>
       <c r="D24">
-        <v>1.025356612251113</v>
+        <v>1.021225004480834</v>
       </c>
       <c r="E24">
-        <v>1.018257227192033</v>
+        <v>1.015144620945007</v>
       </c>
       <c r="F24">
-        <v>1.029423765665293</v>
+        <v>1.028132711161347</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052066083819055</v>
+        <v>1.050012491339243</v>
       </c>
       <c r="J24">
-        <v>1.028291755025184</v>
+        <v>1.023867863560373</v>
       </c>
       <c r="K24">
-        <v>1.038952603979905</v>
+        <v>1.034889363160917</v>
       </c>
       <c r="L24">
-        <v>1.031971135901576</v>
+        <v>1.028910899334413</v>
       </c>
       <c r="M24">
-        <v>1.042953145704512</v>
+        <v>1.041683162659326</v>
       </c>
       <c r="N24">
-        <v>1.029752047264033</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011852369816301</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.041561817010936</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00952118248425</v>
+        <v>1.002832958814718</v>
       </c>
       <c r="D25">
-        <v>1.032084990815376</v>
+        <v>1.025887183282888</v>
       </c>
       <c r="E25">
-        <v>1.025351162731796</v>
+        <v>1.020168813329814</v>
       </c>
       <c r="F25">
-        <v>1.036882551009408</v>
+        <v>1.032948260154372</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054869307563471</v>
+        <v>1.051681174230407</v>
       </c>
       <c r="J25">
-        <v>1.033732315179491</v>
+        <v>1.027265357286784</v>
       </c>
       <c r="K25">
-        <v>1.044204839801676</v>
+        <v>1.038096498834808</v>
       </c>
       <c r="L25">
-        <v>1.037568280295486</v>
+        <v>1.032461899286383</v>
       </c>
       <c r="M25">
-        <v>1.048934074859497</v>
+        <v>1.045055755501463</v>
       </c>
       <c r="N25">
-        <v>1.0352003336378</v>
+        <v>1.012989898971344</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.044230989288199</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_41/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007935638619175</v>
+        <v>1.00739701787124</v>
       </c>
       <c r="D2">
-        <v>1.029492217965691</v>
+        <v>1.028400261364102</v>
       </c>
       <c r="E2">
-        <v>1.02407003401196</v>
+        <v>1.023548163095288</v>
       </c>
       <c r="F2">
-        <v>1.036684963911169</v>
+        <v>1.036020182992751</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052922827964174</v>
+        <v>1.052361818389496</v>
       </c>
       <c r="J2">
-        <v>1.02988155935986</v>
+        <v>1.029358714121795</v>
       </c>
       <c r="K2">
-        <v>1.040555418459122</v>
+        <v>1.039477621632971</v>
       </c>
       <c r="L2">
-        <v>1.035203918415678</v>
+        <v>1.034688900160345</v>
       </c>
       <c r="M2">
-        <v>1.047655824731401</v>
+        <v>1.046999511015283</v>
       </c>
       <c r="N2">
-        <v>1.013865638729185</v>
+        <v>1.014985778211846</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04628875628423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04576933192697</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022582702103693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011548866417476</v>
+        <v>1.010864022874449</v>
       </c>
       <c r="D3">
-        <v>1.03204722030213</v>
+        <v>1.030760615347272</v>
       </c>
       <c r="E3">
-        <v>1.026844640385337</v>
+        <v>1.02619231883885</v>
       </c>
       <c r="F3">
-        <v>1.039340956693348</v>
+        <v>1.038540960435742</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053774096022963</v>
+        <v>1.053111649787164</v>
       </c>
       <c r="J3">
-        <v>1.031729573411455</v>
+        <v>1.031062842188427</v>
       </c>
       <c r="K3">
-        <v>1.042285835756779</v>
+        <v>1.041014473893654</v>
       </c>
       <c r="L3">
-        <v>1.037145185111504</v>
+        <v>1.03650068347997</v>
       </c>
       <c r="M3">
-        <v>1.049494041499151</v>
+        <v>1.048703353930596</v>
       </c>
       <c r="N3">
-        <v>1.014484090617973</v>
+        <v>1.015439243428085</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047743568610348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.047117798355668</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022889810363703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013846308248042</v>
+        <v>1.013069406751478</v>
       </c>
       <c r="D4">
-        <v>1.033672533011312</v>
+        <v>1.032262810395017</v>
       </c>
       <c r="E4">
-        <v>1.028614228535402</v>
+        <v>1.027879620091953</v>
       </c>
       <c r="F4">
-        <v>1.041034102238614</v>
+        <v>1.040148707805607</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054302115408439</v>
+        <v>1.053575387060665</v>
       </c>
       <c r="J4">
-        <v>1.032902335453914</v>
+        <v>1.032144602896564</v>
       </c>
       <c r="K4">
-        <v>1.043380860740543</v>
+        <v>1.041986841387506</v>
       </c>
       <c r="L4">
-        <v>1.038379148178872</v>
+        <v>1.037652815538338</v>
       </c>
       <c r="M4">
-        <v>1.050661276010419</v>
+        <v>1.049785567533532</v>
       </c>
       <c r="N4">
-        <v>1.014876486452434</v>
+        <v>1.015727068135419</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048667346726968</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047974289595995</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023081547545978</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014802711880451</v>
+        <v>1.013987693833672</v>
       </c>
       <c r="D5">
-        <v>1.034349266698793</v>
+        <v>1.032888438937211</v>
       </c>
       <c r="E5">
-        <v>1.029352147386438</v>
+        <v>1.028583433742718</v>
       </c>
       <c r="F5">
-        <v>1.041739947003806</v>
+        <v>1.040819132772381</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054518698527606</v>
+        <v>1.053765258057716</v>
       </c>
       <c r="J5">
-        <v>1.033389970414276</v>
+        <v>1.032594466229897</v>
       </c>
       <c r="K5">
-        <v>1.043835411010478</v>
+        <v>1.042390426360147</v>
       </c>
       <c r="L5">
-        <v>1.038892715562402</v>
+        <v>1.038132431656116</v>
       </c>
       <c r="M5">
-        <v>1.051146771058551</v>
+        <v>1.050235764217552</v>
       </c>
       <c r="N5">
-        <v>1.015039624658706</v>
+        <v>1.01584675554399</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.049051579116908</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.048330586356027</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023160504343586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014962750257937</v>
+        <v>1.014141365776051</v>
       </c>
       <c r="D6">
-        <v>1.034462513332947</v>
+        <v>1.032993142418288</v>
       </c>
       <c r="E6">
-        <v>1.029475698767172</v>
+        <v>1.02870128677129</v>
       </c>
       <c r="F6">
-        <v>1.041858116338002</v>
+        <v>1.040931382642928</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054554749155553</v>
+        <v>1.053796841560696</v>
       </c>
       <c r="J6">
-        <v>1.033471533507299</v>
+        <v>1.03266971525244</v>
       </c>
       <c r="K6">
-        <v>1.043911395048215</v>
+        <v>1.042457887696426</v>
       </c>
       <c r="L6">
-        <v>1.038978644690098</v>
+        <v>1.038212686149697</v>
       </c>
       <c r="M6">
-        <v>1.051227985335799</v>
+        <v>1.050311077321685</v>
       </c>
       <c r="N6">
-        <v>1.015066910352568</v>
+        <v>1.015866775263901</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049115854018472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048390190987549</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023173665434312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013859124507248</v>
+        <v>1.013089065066896</v>
       </c>
       <c r="D7">
-        <v>1.033681601102723</v>
+        <v>1.032276511437424</v>
       </c>
       <c r="E7">
-        <v>1.02862411208267</v>
+        <v>1.027895162261689</v>
       </c>
       <c r="F7">
-        <v>1.041043556980043</v>
+        <v>1.040162649634937</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054305030522658</v>
+        <v>1.053580769906765</v>
       </c>
       <c r="J7">
-        <v>1.03290887229744</v>
+        <v>1.032157805228973</v>
       </c>
       <c r="K7">
-        <v>1.043386957105846</v>
+        <v>1.041997513457143</v>
       </c>
       <c r="L7">
-        <v>1.038386030736116</v>
+        <v>1.03766528998075</v>
       </c>
       <c r="M7">
-        <v>1.050667783551409</v>
+        <v>1.049796509604795</v>
       </c>
       <c r="N7">
-        <v>1.014878673434025</v>
+        <v>1.015756405399994</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048672496951826</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047982949423116</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023084146447163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009165308970866</v>
+        <v>1.008599316457574</v>
       </c>
       <c r="D8">
-        <v>1.030361566482787</v>
+        <v>1.02921958002686</v>
       </c>
       <c r="E8">
-        <v>1.025013154431142</v>
+        <v>1.024465551973385</v>
       </c>
       <c r="F8">
-        <v>1.037587927459374</v>
+        <v>1.0368922642398</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053215280052593</v>
+        <v>1.052628379464177</v>
       </c>
       <c r="J8">
-        <v>1.030510944990452</v>
+        <v>1.029960977928889</v>
       </c>
       <c r="K8">
-        <v>1.041145395756216</v>
+        <v>1.040017781429758</v>
       </c>
       <c r="L8">
-        <v>1.035864639533328</v>
+        <v>1.035324013883617</v>
       </c>
       <c r="M8">
-        <v>1.048281724705212</v>
+        <v>1.047594660671066</v>
       </c>
       <c r="N8">
-        <v>1.014076282811304</v>
+        <v>1.015224543469768</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046784110044869</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046240349414452</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022692683689387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000570963473967</v>
+        <v>1.000361893630698</v>
       </c>
       <c r="D9">
-        <v>1.024290554960805</v>
+        <v>1.023617987419818</v>
       </c>
       <c r="E9">
-        <v>1.018445688579481</v>
+        <v>1.018215234222827</v>
       </c>
       <c r="F9">
-        <v>1.031297065061521</v>
+        <v>1.030928899006469</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051117287386554</v>
+        <v>1.050774305317942</v>
       </c>
       <c r="J9">
-        <v>1.026103575647394</v>
+        <v>1.025901878970113</v>
       </c>
       <c r="K9">
-        <v>1.037001455310703</v>
+        <v>1.03633915821066</v>
       </c>
       <c r="L9">
-        <v>1.031246421902975</v>
+        <v>1.031019536521678</v>
       </c>
       <c r="M9">
-        <v>1.043901986480787</v>
+        <v>1.043539343583181</v>
       </c>
       <c r="N9">
-        <v>1.012600945667252</v>
+        <v>1.014153783925507</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.043317862589653</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043030856110398</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021943423702453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9946508340933941</v>
+        <v>0.9947241272883013</v>
       </c>
       <c r="D10">
-        <v>1.020130939668752</v>
+        <v>1.019807111385653</v>
       </c>
       <c r="E10">
-        <v>1.013973569035546</v>
+        <v>1.01399083601438</v>
       </c>
       <c r="F10">
-        <v>1.027040713283225</v>
+        <v>1.026922196834142</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049621382818427</v>
+        <v>1.049459171590323</v>
       </c>
       <c r="J10">
-        <v>1.023078302241396</v>
+        <v>1.02314864326191</v>
       </c>
       <c r="K10">
-        <v>1.034145993837041</v>
+        <v>1.033827720218866</v>
       </c>
       <c r="L10">
-        <v>1.028095028018228</v>
+        <v>1.028111994269046</v>
       </c>
       <c r="M10">
-        <v>1.040938320020032</v>
+        <v>1.040821800845878</v>
       </c>
       <c r="N10">
-        <v>1.011591955090378</v>
+        <v>1.013540695618329</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.041023604634802</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040931393295987</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021424429847724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9923859515018603</v>
+        <v>0.9926020320458584</v>
       </c>
       <c r="D11">
-        <v>1.018651382513104</v>
+        <v>1.018480218164191</v>
       </c>
       <c r="E11">
-        <v>1.012427183379319</v>
+        <v>1.012565686727459</v>
       </c>
       <c r="F11">
-        <v>1.025814839512773</v>
+        <v>1.02581324597938</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049153908060018</v>
+        <v>1.049071214806843</v>
       </c>
       <c r="J11">
-        <v>1.022078950506485</v>
+        <v>1.022285846894489</v>
       </c>
       <c r="K11">
-        <v>1.033229929108637</v>
+        <v>1.033061841578037</v>
       </c>
       <c r="L11">
-        <v>1.027118485812498</v>
+        <v>1.027254460443059</v>
       </c>
       <c r="M11">
-        <v>1.040265811000218</v>
+        <v>1.040264245589389</v>
       </c>
       <c r="N11">
-        <v>1.011292664618903</v>
+        <v>1.013563836127144</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040926370582408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040925132361457</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021293526909408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.991664376152536</v>
+        <v>0.9919259990544815</v>
       </c>
       <c r="D12">
-        <v>1.01822362096119</v>
+        <v>1.018098923778189</v>
       </c>
       <c r="E12">
-        <v>1.011999721207128</v>
+        <v>1.012175751659001</v>
       </c>
       <c r="F12">
-        <v>1.025589877529897</v>
+        <v>1.025624905221494</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049050614950391</v>
+        <v>1.048992234013363</v>
       </c>
       <c r="J12">
-        <v>1.021825752669569</v>
+        <v>1.022076039915365</v>
       </c>
       <c r="K12">
-        <v>1.033009819635283</v>
+        <v>1.032887401789473</v>
       </c>
       <c r="L12">
-        <v>1.026900580716305</v>
+        <v>1.02707334294586</v>
       </c>
       <c r="M12">
-        <v>1.040242706163861</v>
+        <v>1.040277105605569</v>
       </c>
       <c r="N12">
-        <v>1.011235977179068</v>
+        <v>1.01362888043617</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041233655069952</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.04126085544764</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021276626228719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9920866577616123</v>
+        <v>0.9923115210400176</v>
       </c>
       <c r="D13">
-        <v>1.01858187379546</v>
+        <v>1.018417194492452</v>
       </c>
       <c r="E13">
-        <v>1.012409083561594</v>
+        <v>1.012552338333671</v>
       </c>
       <c r="F13">
-        <v>1.026131685391755</v>
+        <v>1.026136958851785</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049229215277286</v>
+        <v>1.049150221941062</v>
       </c>
       <c r="J13">
-        <v>1.022135880334911</v>
+        <v>1.022351047682875</v>
       </c>
       <c r="K13">
-        <v>1.033318659091174</v>
+        <v>1.03315697730146</v>
       </c>
       <c r="L13">
-        <v>1.027259096002987</v>
+        <v>1.027399702663194</v>
       </c>
       <c r="M13">
-        <v>1.040732389490711</v>
+        <v>1.040737568808175</v>
       </c>
       <c r="N13">
-        <v>1.011364153961744</v>
+        <v>1.013696138880579</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041896870786917</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.041900965159548</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021347682438897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9928998789307669</v>
+        <v>0.9930625485141547</v>
       </c>
       <c r="D14">
-        <v>1.019188013054595</v>
+        <v>1.018956865441748</v>
       </c>
       <c r="E14">
-        <v>1.01307381186881</v>
+        <v>1.013163135587729</v>
       </c>
       <c r="F14">
-        <v>1.026857636989285</v>
+        <v>1.026812681111239</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049481194476208</v>
+        <v>1.049367772692498</v>
       </c>
       <c r="J14">
-        <v>1.022607124556369</v>
+        <v>1.022762879909439</v>
       </c>
       <c r="K14">
-        <v>1.033773428721166</v>
+        <v>1.033546436225758</v>
       </c>
       <c r="L14">
-        <v>1.027769967459271</v>
+        <v>1.027857660831216</v>
       </c>
       <c r="M14">
-        <v>1.04130655851684</v>
+        <v>1.041262395003484</v>
       </c>
       <c r="N14">
-        <v>1.011537147153246</v>
+        <v>1.013745200747762</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042523698494016</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042488790893407</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021437185737711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.993349530551622</v>
+        <v>0.993479560717986</v>
       </c>
       <c r="D15">
-        <v>1.019511041847909</v>
+        <v>1.019244991704621</v>
       </c>
       <c r="E15">
-        <v>1.013423142742431</v>
+        <v>1.013484396618995</v>
       </c>
       <c r="F15">
-        <v>1.027210963203223</v>
+        <v>1.027139537820868</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049606600237418</v>
+        <v>1.049475068886663</v>
       </c>
       <c r="J15">
-        <v>1.022848836993746</v>
+        <v>1.022973388447265</v>
       </c>
       <c r="K15">
-        <v>1.034004217803492</v>
+        <v>1.03374291384139</v>
       </c>
       <c r="L15">
-        <v>1.028025734733722</v>
+        <v>1.028085879198372</v>
       </c>
       <c r="M15">
-        <v>1.041568156840662</v>
+        <v>1.041497980711172</v>
       </c>
       <c r="N15">
-        <v>1.01162110055334</v>
+        <v>1.013761713564147</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042767928385585</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.042712461422085</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021479768465683</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9957774743632772</v>
+        <v>0.9957457594680692</v>
       </c>
       <c r="D16">
-        <v>1.021211103446509</v>
+        <v>1.020768985536936</v>
       </c>
       <c r="E16">
-        <v>1.01524265816352</v>
+        <v>1.015165185839621</v>
       </c>
       <c r="F16">
-        <v>1.028934142235263</v>
+        <v>1.02872966071033</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050227759178734</v>
+        <v>1.050004742869018</v>
       </c>
       <c r="J16">
-        <v>1.02408230539222</v>
+        <v>1.024051859954253</v>
       </c>
       <c r="K16">
-        <v>1.035172077109346</v>
+        <v>1.034737501210545</v>
       </c>
       <c r="L16">
-        <v>1.029306163501803</v>
+        <v>1.029230032326908</v>
       </c>
       <c r="M16">
-        <v>1.042764717269038</v>
+        <v>1.042563655765823</v>
       </c>
       <c r="N16">
-        <v>1.012027745394392</v>
+        <v>1.013838242844316</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043675053440291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.043516130614113</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02168444264797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.997214315321665</v>
+        <v>0.9970992553054799</v>
       </c>
       <c r="D17">
-        <v>1.022197146235617</v>
+        <v>1.021660653775915</v>
       </c>
       <c r="E17">
-        <v>1.016290432861929</v>
+        <v>1.016141270416316</v>
       </c>
       <c r="F17">
-        <v>1.029871689490885</v>
+        <v>1.029596821199477</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050567997014064</v>
+        <v>1.050295896503254</v>
       </c>
       <c r="J17">
-        <v>1.024779965790006</v>
+        <v>1.024669363056171</v>
       </c>
       <c r="K17">
-        <v>1.03582685955908</v>
+        <v>1.035299261175832</v>
       </c>
       <c r="L17">
-        <v>1.030018736049932</v>
+        <v>1.029872082431682</v>
       </c>
       <c r="M17">
-        <v>1.04337547574407</v>
+        <v>1.043105075966013</v>
       </c>
       <c r="N17">
-        <v>1.012248366510969</v>
+        <v>1.013899576226208</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044029078374775</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.043815328034265</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021794503693334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,93 +1335,111 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9979284659488601</v>
+        <v>0.9977804610535895</v>
       </c>
       <c r="D18">
-        <v>1.022649558878653</v>
+        <v>1.022074137737023</v>
       </c>
       <c r="E18">
-        <v>1.016756438061339</v>
+        <v>1.016579152188758</v>
       </c>
       <c r="F18">
-        <v>1.030191709775145</v>
+        <v>1.029887891883872</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050693524013012</v>
+        <v>1.050401092693557</v>
       </c>
       <c r="J18">
-        <v>1.025069962424882</v>
+        <v>1.024927582933103</v>
       </c>
       <c r="K18">
-        <v>1.036088458057155</v>
+        <v>1.035522418923391</v>
       </c>
       <c r="L18">
-        <v>1.030292068926951</v>
+        <v>1.030117715450261</v>
       </c>
       <c r="M18">
-        <v>1.043508879596457</v>
+        <v>1.043209921098207</v>
       </c>
       <c r="N18">
-        <v>1.012324741594187</v>
+        <v>1.013912770945636</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043897493251548</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.043661118270368</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021828039657201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9979789696202556</v>
+        <v>0.9978391627655993</v>
       </c>
       <c r="D19">
-        <v>1.022609038133285</v>
+        <v>1.022042207282009</v>
       </c>
       <c r="E19">
-        <v>1.016684586712664</v>
+        <v>1.016515155833691</v>
       </c>
       <c r="F19">
-        <v>1.029941717891415</v>
+        <v>1.02964385271248</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050622023759887</v>
+        <v>1.050333897731325</v>
       </c>
       <c r="J19">
-        <v>1.024983471916612</v>
+        <v>1.024848946962803</v>
       </c>
       <c r="K19">
-        <v>1.035986083373919</v>
+        <v>1.035428446005321</v>
       </c>
       <c r="L19">
-        <v>1.030158372474307</v>
+        <v>1.029991729570675</v>
       </c>
       <c r="M19">
-        <v>1.043201002597664</v>
+        <v>1.042907879156756</v>
       </c>
       <c r="N19">
-        <v>1.01226949686072</v>
+        <v>1.013861721720483</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043329569945375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.043097733212985</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021789559050769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9961852093693583</v>
+        <v>0.9961644875986944</v>
       </c>
       <c r="D20">
-        <v>1.021208968293728</v>
+        <v>1.020779636692764</v>
       </c>
       <c r="E20">
-        <v>1.015131164983669</v>
+        <v>1.015066934797253</v>
       </c>
       <c r="F20">
-        <v>1.028144304839642</v>
+        <v>1.027947006662708</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050014530392842</v>
+        <v>1.049797532641205</v>
       </c>
       <c r="J20">
-        <v>1.023863980975856</v>
+        <v>1.023844066690726</v>
       </c>
       <c r="K20">
-        <v>1.034888860912045</v>
+        <v>1.03446668393257</v>
       </c>
       <c r="L20">
-        <v>1.028913068703725</v>
+        <v>1.028849924987271</v>
       </c>
       <c r="M20">
-        <v>1.041709687413337</v>
+        <v>1.041515619394835</v>
       </c>
       <c r="N20">
-        <v>1.011854177792599</v>
+        <v>1.013626968389672</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.041623541942383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.041469957902075</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021556317111086</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9916756147131107</v>
+        <v>0.9919745503932789</v>
       </c>
       <c r="D21">
-        <v>1.018022650900763</v>
+        <v>1.017935948640432</v>
       </c>
       <c r="E21">
-        <v>1.011705751621828</v>
+        <v>1.011917555845663</v>
       </c>
       <c r="F21">
-        <v>1.024834955725205</v>
+        <v>1.024898968444254</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048829580398521</v>
+        <v>1.048790608929883</v>
       </c>
       <c r="J21">
-        <v>1.021525545647827</v>
+        <v>1.021811687182121</v>
       </c>
       <c r="K21">
-        <v>1.032670438312159</v>
+        <v>1.03258530407396</v>
       </c>
       <c r="L21">
-        <v>1.026468697510315</v>
+        <v>1.026676610150092</v>
       </c>
       <c r="M21">
-        <v>1.039360617969819</v>
+        <v>1.039423493115049</v>
       </c>
       <c r="N21">
-        <v>1.011068016133319</v>
+        <v>1.013500798484852</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.039723678973923</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.039773440487664</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02116403131806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9888077181245076</v>
+        <v>0.9893086220282504</v>
       </c>
       <c r="D22">
-        <v>1.016006114840097</v>
+        <v>1.016136016484571</v>
       </c>
       <c r="E22">
-        <v>1.00954485785547</v>
+        <v>1.009930920947227</v>
       </c>
       <c r="F22">
-        <v>1.022762158634463</v>
+        <v>1.022991377286682</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048070714371893</v>
+        <v>1.048144087229917</v>
       </c>
       <c r="J22">
-        <v>1.020047134875899</v>
+        <v>1.020525349931459</v>
       </c>
       <c r="K22">
-        <v>1.031267019184599</v>
+        <v>1.031394452795439</v>
       </c>
       <c r="L22">
-        <v>1.024929571371996</v>
+        <v>1.025308178509379</v>
       </c>
       <c r="M22">
-        <v>1.03789578853034</v>
+        <v>1.038120727501697</v>
       </c>
       <c r="N22">
-        <v>1.010572923801425</v>
+        <v>1.01341602690458</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03856436249989</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.038742387071621</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020914869193042</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.990333390545262</v>
+        <v>0.9907150818234315</v>
       </c>
       <c r="D23">
-        <v>1.017078595584782</v>
+        <v>1.017084689792209</v>
       </c>
       <c r="E23">
-        <v>1.010693692219478</v>
+        <v>1.010977196879859</v>
       </c>
       <c r="F23">
-        <v>1.023864207030141</v>
+        <v>1.023997531701834</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048475606886714</v>
+        <v>1.048484705092087</v>
       </c>
       <c r="J23">
-        <v>1.020833742492166</v>
+        <v>1.021198653051112</v>
       </c>
       <c r="K23">
-        <v>1.032013990110915</v>
+        <v>1.032019971497857</v>
       </c>
       <c r="L23">
-        <v>1.025748265187193</v>
+        <v>1.026026436330693</v>
       </c>
       <c r="M23">
-        <v>1.038675063620373</v>
+        <v>1.038805962865481</v>
       </c>
       <c r="N23">
-        <v>1.01083634614855</v>
+        <v>1.013419160912318</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039181107881312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.039284706039812</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021045226724603</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9962236678654929</v>
+        <v>0.9962022256107617</v>
       </c>
       <c r="D24">
-        <v>1.021225004480834</v>
+        <v>1.020794817552784</v>
       </c>
       <c r="E24">
-        <v>1.015144620945007</v>
+        <v>1.015079903496</v>
       </c>
       <c r="F24">
-        <v>1.028132711161347</v>
+        <v>1.027934747977272</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050012491339243</v>
+        <v>1.04979503036432</v>
       </c>
       <c r="J24">
-        <v>1.023867863560373</v>
+        <v>1.023847255601975</v>
       </c>
       <c r="K24">
-        <v>1.034889363160917</v>
+        <v>1.034466335638813</v>
       </c>
       <c r="L24">
-        <v>1.028910899334413</v>
+        <v>1.028847275155487</v>
       </c>
       <c r="M24">
-        <v>1.041683162659326</v>
+        <v>1.041488436472578</v>
       </c>
       <c r="N24">
-        <v>1.011852369816301</v>
+        <v>1.013621666504717</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041561817010936</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.041407704500309</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021553499650799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002832958814718</v>
+        <v>1.002520043933707</v>
       </c>
       <c r="D25">
-        <v>1.025887183282888</v>
+        <v>1.025083933084956</v>
       </c>
       <c r="E25">
-        <v>1.020168813329814</v>
+        <v>1.019846775530962</v>
       </c>
       <c r="F25">
-        <v>1.032948260154372</v>
+        <v>1.032487258975418</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051681174230407</v>
+        <v>1.051270338466866</v>
       </c>
       <c r="J25">
-        <v>1.027265357286784</v>
+        <v>1.026962895163452</v>
       </c>
       <c r="K25">
-        <v>1.038096498834808</v>
+        <v>1.037304944158348</v>
       </c>
       <c r="L25">
-        <v>1.032461899286383</v>
+        <v>1.032144614627436</v>
       </c>
       <c r="M25">
-        <v>1.045055755501463</v>
+        <v>1.044601348131969</v>
       </c>
       <c r="N25">
-        <v>1.012989898971344</v>
+        <v>1.014403301238682</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.044230989288199</v>
+        <v>1.043871358082768</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022141869873227</v>
       </c>
     </row>
   </sheetData>
